--- a/public/posicions.xlsx
+++ b/public/posicions.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomas\OneDrive\Escritorio\CMPSB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joan\Documents\CMPSB\sistema-adjudicacio\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99061CF5-CC5E-4E42-8A13-474DA38EC192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C8DEBE-4BC5-4E11-92D6-A2AF97FE3E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="98">
   <si>
     <t>id</t>
   </si>
@@ -100,6 +111,21 @@
     <t>Tècnic/a Laboratori</t>
   </si>
   <si>
+    <t>Metge/ssa Cardiologia</t>
+  </si>
+  <si>
+    <t>Metge/ssa Oncologia</t>
+  </si>
+  <si>
+    <t>Metge/ssa Dermatologia</t>
+  </si>
+  <si>
+    <t>Metge/ssa Neurologia</t>
+  </si>
+  <si>
+    <t>Metge/ssa Pediatria</t>
+  </si>
+  <si>
     <t>Medicina Interna</t>
   </si>
   <si>
@@ -139,6 +165,15 @@
     <t>Laboratori</t>
   </si>
   <si>
+    <t>Oncologia</t>
+  </si>
+  <si>
+    <t>Dermatologia</t>
+  </si>
+  <si>
+    <t>Neurologia</t>
+  </si>
+  <si>
     <t>Medicina</t>
   </si>
   <si>
@@ -220,6 +255,36 @@
     <t>24.000-30.000€</t>
   </si>
   <si>
+    <t>43637-57941€</t>
+  </si>
+  <si>
+    <t>43157-54838€</t>
+  </si>
+  <si>
+    <t>44733-59589€</t>
+  </si>
+  <si>
+    <t>43352-52872€</t>
+  </si>
+  <si>
+    <t>41711-52787€</t>
+  </si>
+  <si>
+    <t>44926-50863€</t>
+  </si>
+  <si>
+    <t>40699-48712€</t>
+  </si>
+  <si>
+    <t>44546-54775€</t>
+  </si>
+  <si>
+    <t>40008-51347€</t>
+  </si>
+  <si>
+    <t>43936-57367€</t>
+  </si>
+  <si>
     <t>Grau en Medicina; MIR Medicina Interna</t>
   </si>
   <si>
@@ -251,6 +316,15 @@
   </si>
   <si>
     <t>FP Laboratori Clínic</t>
+  </si>
+  <si>
+    <t>Grau en Medicina; MIR Oncologia</t>
+  </si>
+  <si>
+    <t>Grau en Medicina; MIR Dermatologia</t>
+  </si>
+  <si>
+    <t>Grau en Medicina; MIR Neurologia</t>
   </si>
 </sst>
 </file>
@@ -332,9 +406,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -372,9 +446,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -407,9 +481,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -442,9 +533,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -618,15 +726,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -661,7 +769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -669,34 +777,35 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
+        <f>H2</f>
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="K2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -704,34 +813,35 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H3">
         <v>3</v>
       </c>
       <c r="I3">
+        <f t="shared" ref="I3:I28" si="0">H3</f>
         <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -739,34 +849,35 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -774,34 +885,35 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -809,34 +921,35 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H6">
         <v>4</v>
       </c>
       <c r="I6">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -844,34 +957,35 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="K7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -879,34 +993,35 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="K8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -914,34 +1029,35 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H9">
         <v>2</v>
       </c>
       <c r="I9">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="K9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -949,34 +1065,35 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
         <v>39</v>
       </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H10">
         <v>2</v>
       </c>
       <c r="I10">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="K10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -984,34 +1101,35 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H11">
         <v>3</v>
       </c>
       <c r="I11">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="K11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1019,34 +1137,35 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="K12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1054,34 +1173,35 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H13">
         <v>2</v>
       </c>
       <c r="I13">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="K13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1089,34 +1209,35 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="K14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1124,34 +1245,35 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H15">
         <v>2</v>
       </c>
       <c r="I15">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="K15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1159,31 +1281,464 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G16" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H16">
         <v>3</v>
       </c>
       <c r="I16">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J19" t="s">
         <v>76</v>
+      </c>
+      <c r="K19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>77</v>
+      </c>
+      <c r="K20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J21" t="s">
+        <v>78</v>
+      </c>
+      <c r="K21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J22" t="s">
+        <v>79</v>
+      </c>
+      <c r="K22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>80</v>
+      </c>
+      <c r="K23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J24" t="s">
+        <v>81</v>
+      </c>
+      <c r="K24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>82</v>
+      </c>
+      <c r="K25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J26" t="s">
+        <v>83</v>
+      </c>
+      <c r="K26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>62</v>
+      </c>
+      <c r="K27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" t="s">
+        <v>61</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>62</v>
+      </c>
+      <c r="K28" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
